--- a/data/actiTIME.xlsx
+++ b/data/actiTIME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\b84framework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raaja\git\b84framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58051A73-333C-46E6-A457-4AFDA5B776E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739A8F96-070B-430E-9CBB-C9F9910DE24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Password</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -349,10 +355,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,6 +383,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/actiTIME.xlsx
+++ b/data/actiTIME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raaja\git\b84framework\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2F9577-5B4C-4F6B-B255-902B0BB5724A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6190E4B-3143-4B2F-A6FB-09E20D0197FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,7 +365,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
